--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F13a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F13a1-Itgb1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2253675</v>
+        <v>1.3303495</v>
       </c>
       <c r="H2">
-        <v>0.4507350000000001</v>
+        <v>2.660699</v>
       </c>
       <c r="I2">
-        <v>0.0008255714740055151</v>
+        <v>0.002620231132000879</v>
       </c>
       <c r="J2">
-        <v>0.0005505514641946941</v>
+        <v>0.001750526019878014</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>37.09036800940876</v>
+        <v>268.1395985515473</v>
       </c>
       <c r="R2">
-        <v>148.361472037635</v>
+        <v>1072.558394206189</v>
       </c>
       <c r="S2">
-        <v>0.0001915957772434015</v>
+        <v>0.0007375113842109628</v>
       </c>
       <c r="T2">
-        <v>9.940746388934261E-05</v>
+        <v>0.0003976279587955372</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2253675</v>
+        <v>1.3303495</v>
       </c>
       <c r="H3">
-        <v>0.4507350000000001</v>
+        <v>2.660699</v>
       </c>
       <c r="I3">
-        <v>0.0008255714740055151</v>
+        <v>0.002620231132000879</v>
       </c>
       <c r="J3">
-        <v>0.0005505514641946941</v>
+        <v>0.001750526019878014</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>26.76561969054</v>
+        <v>157.998064372636</v>
       </c>
       <c r="R3">
-        <v>160.59371814324</v>
+        <v>947.9883862358161</v>
       </c>
       <c r="S3">
-        <v>0.0001382617639897623</v>
+        <v>0.0004345697979245489</v>
       </c>
       <c r="T3">
-        <v>0.0001076035039146129</v>
+        <v>0.0003514463072752368</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2253675</v>
+        <v>1.3303495</v>
       </c>
       <c r="H4">
-        <v>0.4507350000000001</v>
+        <v>2.660699</v>
       </c>
       <c r="I4">
-        <v>0.0008255714740055151</v>
+        <v>0.002620231132000879</v>
       </c>
       <c r="J4">
-        <v>0.0005505514641946941</v>
+        <v>0.001750526019878014</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>19.0507558191975</v>
+        <v>103.2523328183812</v>
       </c>
       <c r="R4">
-        <v>114.304534915185</v>
+        <v>619.5139969102871</v>
       </c>
       <c r="S4">
-        <v>9.840949454390661E-05</v>
+        <v>0.0002839930070427708</v>
       </c>
       <c r="T4">
-        <v>7.658810451871872E-05</v>
+        <v>0.0002296714914240338</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2253675</v>
+        <v>1.3303495</v>
       </c>
       <c r="H5">
-        <v>0.4507350000000001</v>
+        <v>2.660699</v>
       </c>
       <c r="I5">
-        <v>0.0008255714740055151</v>
+        <v>0.002620231132000879</v>
       </c>
       <c r="J5">
-        <v>0.0005505514641946941</v>
+        <v>0.001750526019878014</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>31.53077579970375</v>
+        <v>228.8729840846543</v>
       </c>
       <c r="R5">
-        <v>126.123103198815</v>
+        <v>915.4919363386171</v>
       </c>
       <c r="S5">
-        <v>0.0001628768820762093</v>
+        <v>0.0006295095249361966</v>
       </c>
       <c r="T5">
-        <v>8.450696568761204E-05</v>
+        <v>0.0003393989473267949</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2253675</v>
+        <v>1.3303495</v>
       </c>
       <c r="H6">
-        <v>0.4507350000000001</v>
+        <v>2.660699</v>
       </c>
       <c r="I6">
-        <v>0.0008255714740055151</v>
+        <v>0.002620231132000879</v>
       </c>
       <c r="J6">
-        <v>0.0005505514641946941</v>
+        <v>0.001750526019878014</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>27.43472588187</v>
+        <v>79.62443170351716</v>
       </c>
       <c r="R6">
-        <v>164.60835529122</v>
+        <v>477.746590221103</v>
       </c>
       <c r="S6">
-        <v>0.0001417181309029653</v>
+        <v>0.000219005044983623</v>
       </c>
       <c r="T6">
-        <v>0.0001102934536154045</v>
+        <v>0.0001771142741666204</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2253675</v>
+        <v>1.3303495</v>
       </c>
       <c r="H7">
-        <v>0.4507350000000001</v>
+        <v>2.660699</v>
       </c>
       <c r="I7">
-        <v>0.0008255714740055151</v>
+        <v>0.002620231132000879</v>
       </c>
       <c r="J7">
-        <v>0.0005505514641946941</v>
+        <v>0.001750526019878014</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>17.94729899536251</v>
+        <v>114.7592036786763</v>
       </c>
       <c r="R7">
-        <v>107.683793972175</v>
+        <v>688.555222072058</v>
       </c>
       <c r="S7">
-        <v>9.270942524927004E-05</v>
+        <v>0.0003156423729027769</v>
       </c>
       <c r="T7">
-        <v>7.215197256900334E-05</v>
+        <v>0.0002552670408897913</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.375623</v>
       </c>
       <c r="I8">
-        <v>0.0004586636401734553</v>
+        <v>0.0002466066444683812</v>
       </c>
       <c r="J8">
-        <v>0.0004588057120818298</v>
+        <v>0.0002471297336394081</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>20.60633602567383</v>
+        <v>25.23632584939217</v>
       </c>
       <c r="R8">
-        <v>123.638016154043</v>
+        <v>151.417955096353</v>
       </c>
       <c r="S8">
-        <v>0.0001064450739872996</v>
+        <v>6.941189481197096E-05</v>
       </c>
       <c r="T8">
-        <v>8.28418689662585E-05</v>
+        <v>5.613495053993559E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.375623</v>
       </c>
       <c r="I9">
-        <v>0.0004586636401734553</v>
+        <v>0.0002466066444683812</v>
       </c>
       <c r="J9">
-        <v>0.0004588057120818298</v>
+        <v>0.0002471297336394081</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
-        <v>14.87020439211466</v>
+        <v>14.87020439211467</v>
       </c>
       <c r="R9">
         <v>133.831839529032</v>
       </c>
       <c r="S9">
-        <v>7.681423833682979E-05</v>
+        <v>4.090013218476619E-05</v>
       </c>
       <c r="T9">
-        <v>8.967209324973351E-05</v>
+        <v>4.961527639077035E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.375623</v>
       </c>
       <c r="I10">
-        <v>0.0004586636401734553</v>
+        <v>0.0002466066444683812</v>
       </c>
       <c r="J10">
-        <v>0.0004588057120818298</v>
+        <v>0.0002471297336394081</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>10.584049094737</v>
+        <v>9.717734828388778</v>
       </c>
       <c r="R10">
-        <v>95.25644185263299</v>
+        <v>87.459613455499</v>
       </c>
       <c r="S10">
-        <v>5.467346973138811E-05</v>
+        <v>2.672839111938297E-05</v>
       </c>
       <c r="T10">
-        <v>6.382520457393962E-05</v>
+        <v>3.242377082983451E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.375623</v>
       </c>
       <c r="I11">
-        <v>0.0004586636401734553</v>
+        <v>0.0002466066444683812</v>
       </c>
       <c r="J11">
-        <v>0.0004588057120818298</v>
+        <v>0.0002471297336394081</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>17.51758734542783</v>
+        <v>21.5406946071515</v>
       </c>
       <c r="R11">
-        <v>105.105524072567</v>
+        <v>129.244167642909</v>
       </c>
       <c r="S11">
-        <v>9.048968621786187E-05</v>
+        <v>5.924715179109173E-05</v>
       </c>
       <c r="T11">
-        <v>7.042444002014019E-05</v>
+        <v>4.791449569896208E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.375623</v>
       </c>
       <c r="I12">
-        <v>0.0004586636401734553</v>
+        <v>0.0002466066444683812</v>
       </c>
       <c r="J12">
-        <v>0.0004588057120818298</v>
+        <v>0.0002471297336394081</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>15.24194044531066</v>
+        <v>7.493962528836777</v>
       </c>
       <c r="R12">
-        <v>137.177464007796</v>
+        <v>67.44566275953099</v>
       </c>
       <c r="S12">
-        <v>7.873449585553156E-05</v>
+        <v>2.061195999294005E-05</v>
       </c>
       <c r="T12">
-        <v>9.191378066353639E-05</v>
+        <v>2.500402901842278E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.375623</v>
       </c>
       <c r="I13">
-        <v>0.0004586636401734553</v>
+        <v>0.0002466066444683812</v>
       </c>
       <c r="J13">
-        <v>0.0004588057120818298</v>
+        <v>0.0002471297336394081</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>9.971000389046113</v>
+        <v>10.80071975156289</v>
       </c>
       <c r="R13">
-        <v>89.73900350141501</v>
+        <v>97.20647776406598</v>
       </c>
       <c r="S13">
-        <v>5.150667604454437E-05</v>
+        <v>2.970711456822932E-05</v>
       </c>
       <c r="T13">
-        <v>6.012832460822154E-05</v>
+        <v>3.603721116148279E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>177.1833293333333</v>
+        <v>326.738454</v>
       </c>
       <c r="H14">
-        <v>531.549988</v>
+        <v>980.215362</v>
       </c>
       <c r="I14">
-        <v>0.64906209798185</v>
+        <v>0.6435378591810926</v>
       </c>
       <c r="J14">
-        <v>0.6492631461636483</v>
+        <v>0.6449028981726783</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>29160.34871978258</v>
+        <v>65856.01594687199</v>
       </c>
       <c r="R14">
-        <v>174962.0923186955</v>
+        <v>395136.095681232</v>
       </c>
       <c r="S14">
-        <v>0.1506320906882917</v>
+        <v>0.1811353553968262</v>
       </c>
       <c r="T14">
-        <v>0.1172308257346123</v>
+        <v>0.1464882098922458</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>177.1833293333333</v>
+        <v>326.738454</v>
       </c>
       <c r="H15">
-        <v>531.549988</v>
+        <v>980.215362</v>
       </c>
       <c r="I15">
-        <v>0.64906209798185</v>
+        <v>0.6435378591810926</v>
       </c>
       <c r="J15">
-        <v>0.6492631461636483</v>
+        <v>0.6449028981726783</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>21043.05904107602</v>
+        <v>38804.87292106891</v>
       </c>
       <c r="R15">
-        <v>189387.5313696841</v>
+        <v>349243.8562896202</v>
       </c>
       <c r="S15">
-        <v>0.1087010312631841</v>
+        <v>0.1067318504866274</v>
       </c>
       <c r="T15">
-        <v>0.1268963830511729</v>
+        <v>0.1294746490713002</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>177.1833293333333</v>
+        <v>326.738454</v>
       </c>
       <c r="H16">
-        <v>531.549988</v>
+        <v>980.215362</v>
       </c>
       <c r="I16">
-        <v>0.64906209798185</v>
+        <v>0.6435378591810926</v>
       </c>
       <c r="J16">
-        <v>0.6492631461636483</v>
+        <v>0.6449028981726783</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>14977.65357632217</v>
+        <v>25359.13126360504</v>
       </c>
       <c r="R16">
-        <v>134798.8821868995</v>
+        <v>228232.1813724453</v>
       </c>
       <c r="S16">
-        <v>0.07736928297691491</v>
+        <v>0.06974966808945021</v>
       </c>
       <c r="T16">
-        <v>0.09032004623086219</v>
+        <v>0.08461217300690126</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>177.1833293333333</v>
+        <v>326.738454</v>
       </c>
       <c r="H17">
-        <v>531.549988</v>
+        <v>980.215362</v>
       </c>
       <c r="I17">
-        <v>0.64906209798185</v>
+        <v>0.6435378591810926</v>
       </c>
       <c r="J17">
-        <v>0.6492631461636483</v>
+        <v>0.6449028981726783</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>24789.41210535861</v>
+        <v>56211.99916426963</v>
       </c>
       <c r="R17">
-        <v>148736.4726321517</v>
+        <v>337271.9949856178</v>
       </c>
       <c r="S17">
-        <v>0.12805337166049</v>
+        <v>0.1546097239529367</v>
       </c>
       <c r="T17">
-        <v>0.09965872762746754</v>
+        <v>0.1250363389531673</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>177.1833293333333</v>
+        <v>326.738454</v>
       </c>
       <c r="H18">
-        <v>531.549988</v>
+        <v>980.215362</v>
       </c>
       <c r="I18">
-        <v>0.64906209798185</v>
+        <v>0.6435378591810926</v>
       </c>
       <c r="J18">
-        <v>0.6492631461636483</v>
+        <v>0.6449028981726783</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>21569.10854980019</v>
+        <v>19556.03675232394</v>
       </c>
       <c r="R18">
-        <v>194121.9769482017</v>
+        <v>176004.3307709155</v>
       </c>
       <c r="S18">
-        <v>0.1114184177411763</v>
+        <v>0.05378839907569358</v>
       </c>
       <c r="T18">
-        <v>0.1300686300059831</v>
+        <v>0.06524982058008105</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>177.1833293333333</v>
+        <v>326.738454</v>
       </c>
       <c r="H19">
-        <v>531.549988</v>
+        <v>980.215362</v>
       </c>
       <c r="I19">
-        <v>0.64906209798185</v>
+        <v>0.6435378591810926</v>
       </c>
       <c r="J19">
-        <v>0.6492631461636483</v>
+        <v>0.6449028981726783</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>14110.11875509608</v>
+        <v>28185.25867994975</v>
       </c>
       <c r="R19">
-        <v>126991.0687958647</v>
+        <v>253667.3281195478</v>
       </c>
       <c r="S19">
-        <v>0.072887903651793</v>
+        <v>0.07752286217955869</v>
       </c>
       <c r="T19">
-        <v>0.0850885335135502</v>
+        <v>0.09404170666898271</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0282255</v>
+        <v>1.8936735</v>
       </c>
       <c r="H20">
-        <v>0.056451</v>
+        <v>3.787347</v>
       </c>
       <c r="I20">
-        <v>0.0001033963088712554</v>
+        <v>0.003729743393405316</v>
       </c>
       <c r="J20">
-        <v>6.895222404573569E-05</v>
+        <v>0.002491769820564798</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>4.64527574849775</v>
+        <v>381.6807929628293</v>
       </c>
       <c r="R20">
-        <v>18.581102993991</v>
+        <v>1526.723171851317</v>
       </c>
       <c r="S20">
-        <v>2.399585836726071E-05</v>
+        <v>0.001049803652520348</v>
       </c>
       <c r="T20">
-        <v>1.244999998672674E-05</v>
+        <v>0.0005659997830872269</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0282255</v>
+        <v>1.8936735</v>
       </c>
       <c r="H21">
-        <v>0.056451</v>
+        <v>3.787347</v>
       </c>
       <c r="I21">
-        <v>0.0001033963088712554</v>
+        <v>0.003729743393405316</v>
       </c>
       <c r="J21">
-        <v>6.895222404573569E-05</v>
+        <v>0.002491769820564798</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>3.352182539963999</v>
+        <v>224.900860678908</v>
       </c>
       <c r="R21">
-        <v>20.113095239784</v>
+        <v>1349.405164073448</v>
       </c>
       <c r="S21">
-        <v>1.731619430260812E-05</v>
+        <v>0.0006185842970062177</v>
       </c>
       <c r="T21">
-        <v>1.347648928857047E-05</v>
+        <v>0.0005002629450080397</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.0282255</v>
+        <v>1.8936735</v>
       </c>
       <c r="H22">
-        <v>0.056451</v>
+        <v>3.787347</v>
       </c>
       <c r="I22">
-        <v>0.0001033963088712554</v>
+        <v>0.003729743393405316</v>
       </c>
       <c r="J22">
-        <v>6.895222404573569E-05</v>
+        <v>0.002491769820564798</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>2.3859567523035</v>
+        <v>146.9735633165185</v>
       </c>
       <c r="R22">
-        <v>14.315740513821</v>
+        <v>881.8413798991111</v>
       </c>
       <c r="S22">
-        <v>1.232501220561543E-05</v>
+        <v>0.0004042471783709533</v>
       </c>
       <c r="T22">
-        <v>9.592055394380711E-06</v>
+        <v>0.0003269237271973794</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.0282255</v>
+        <v>1.8936735</v>
       </c>
       <c r="H23">
-        <v>0.056451</v>
+        <v>3.787347</v>
       </c>
       <c r="I23">
-        <v>0.0001033963088712554</v>
+        <v>0.003729743393405316</v>
       </c>
       <c r="J23">
-        <v>6.895222404573569E-05</v>
+        <v>0.002491769820564798</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>3.94898071964475</v>
+        <v>325.7870994254002</v>
       </c>
       <c r="R23">
-        <v>15.795922878579</v>
+        <v>1303.148397701601</v>
       </c>
       <c r="S23">
-        <v>2.039904349581037E-05</v>
+        <v>0.0008960694203810838</v>
       </c>
       <c r="T23">
-        <v>1.058383023291155E-05</v>
+        <v>0.0004831142436484905</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.0282255</v>
+        <v>1.8936735</v>
       </c>
       <c r="H24">
-        <v>0.056451</v>
+        <v>3.787347</v>
       </c>
       <c r="I24">
-        <v>0.0001033963088712554</v>
+        <v>0.003729743393405316</v>
       </c>
       <c r="J24">
-        <v>6.895222404573569E-05</v>
+        <v>0.002491769820564798</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>3.435982807542</v>
+        <v>113.3406494079265</v>
       </c>
       <c r="R24">
-        <v>20.615896845252</v>
+        <v>680.043896447559</v>
       </c>
       <c r="S24">
-        <v>1.774907696895802E-05</v>
+        <v>0.0003117406742001216</v>
       </c>
       <c r="T24">
-        <v>1.381338425026501E-05</v>
+        <v>0.0002521116499544396</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.0282255</v>
+        <v>1.8936735</v>
       </c>
       <c r="H25">
-        <v>0.056451</v>
+        <v>3.787347</v>
       </c>
       <c r="I25">
-        <v>0.0001033963088712554</v>
+        <v>0.003729743393405316</v>
       </c>
       <c r="J25">
-        <v>6.895222404573569E-05</v>
+        <v>0.002491769820564798</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>2.247757497392501</v>
+        <v>163.352910560279</v>
       </c>
       <c r="R25">
-        <v>13.486544984355</v>
+        <v>980.1174633616739</v>
       </c>
       <c r="S25">
-        <v>1.161112353100279E-05</v>
+        <v>0.0004492981709265924</v>
       </c>
       <c r="T25">
-        <v>9.036464892881198E-06</v>
+        <v>0.0003633574716692225</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4890126666666667</v>
+        <v>50.45745666666667</v>
       </c>
       <c r="H26">
-        <v>1.467038</v>
+        <v>151.37237</v>
       </c>
       <c r="I26">
-        <v>0.001791362587894739</v>
+        <v>0.09938004922735362</v>
       </c>
       <c r="J26">
-        <v>0.001791917465759827</v>
+        <v>0.09959084901208372</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>80.48036991992633</v>
+        <v>10169.99079905851</v>
       </c>
       <c r="R26">
-        <v>482.882219519558</v>
+        <v>61019.94479435107</v>
       </c>
       <c r="S26">
-        <v>0.0004157332443758236</v>
+        <v>0.0279723100658872</v>
       </c>
       <c r="T26">
-        <v>0.0003235482645219328</v>
+        <v>0.02262183227082162</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.4890126666666667</v>
+        <v>50.45745666666667</v>
       </c>
       <c r="H27">
-        <v>1.467038</v>
+        <v>151.37237</v>
       </c>
       <c r="I27">
-        <v>0.001791362587894739</v>
+        <v>0.09938004922735362</v>
       </c>
       <c r="J27">
-        <v>0.001791917465759827</v>
+        <v>0.09959084901208372</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>58.07726074015466</v>
+        <v>5992.545933605787</v>
       </c>
       <c r="R27">
-        <v>522.6953466613919</v>
+        <v>53932.91340245208</v>
       </c>
       <c r="S27">
-        <v>0.0003000066731302027</v>
+        <v>0.01648235050069175</v>
       </c>
       <c r="T27">
-        <v>0.000350224475968997</v>
+        <v>0.01999446779211058</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.4890126666666667</v>
+        <v>50.45745666666667</v>
       </c>
       <c r="H28">
-        <v>1.467038</v>
+        <v>151.37237</v>
       </c>
       <c r="I28">
-        <v>0.001791362587894739</v>
+        <v>0.09938004922735362</v>
       </c>
       <c r="J28">
-        <v>0.001791917465759827</v>
+        <v>0.09959084901208372</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>41.337197711122</v>
+        <v>3916.151439088535</v>
       </c>
       <c r="R28">
-        <v>372.034779400098</v>
+        <v>35245.36295179681</v>
       </c>
       <c r="S28">
-        <v>0.0002135334036728213</v>
+        <v>0.01077127840954348</v>
       </c>
       <c r="T28">
-        <v>0.0002492765364946855</v>
+        <v>0.01306646034680761</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.4890126666666667</v>
+        <v>50.45745666666667</v>
       </c>
       <c r="H29">
-        <v>1.467038</v>
+        <v>151.37237</v>
       </c>
       <c r="I29">
-        <v>0.001791362587894739</v>
+        <v>0.09938004922735362</v>
       </c>
       <c r="J29">
-        <v>0.001791917465759827</v>
+        <v>0.09959084901208372</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>68.41691351185034</v>
+        <v>8680.687801680784</v>
       </c>
       <c r="R29">
-        <v>410.501481071102</v>
+        <v>52084.1268100847</v>
       </c>
       <c r="S29">
-        <v>0.0003534176775375301</v>
+        <v>0.02387601872720068</v>
       </c>
       <c r="T29">
-        <v>0.00027505059498025</v>
+        <v>0.01930906992198746</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.4890126666666667</v>
+        <v>50.45745666666667</v>
       </c>
       <c r="H30">
-        <v>1.467038</v>
+        <v>151.37237</v>
       </c>
       <c r="I30">
-        <v>0.001791362587894739</v>
+        <v>0.09938004922735362</v>
       </c>
       <c r="J30">
-        <v>0.001791917465759827</v>
+        <v>0.09959084901208372</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>59.52911783093067</v>
+        <v>3019.993101277654</v>
       </c>
       <c r="R30">
-        <v>535.7620604783759</v>
+        <v>27179.93791149889</v>
       </c>
       <c r="S30">
-        <v>0.0003075064554910305</v>
+        <v>0.00830641689799751</v>
       </c>
       <c r="T30">
-        <v>0.0003589796390451946</v>
+        <v>0.01007637746375336</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.4890126666666667</v>
+        <v>50.45745666666667</v>
       </c>
       <c r="H31">
-        <v>1.467038</v>
+        <v>151.37237</v>
       </c>
       <c r="I31">
-        <v>0.001791362587894739</v>
+        <v>0.09938004922735362</v>
       </c>
       <c r="J31">
-        <v>0.001791917465759827</v>
+        <v>0.09959084901208372</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>38.94286683388778</v>
+        <v>4352.583698282282</v>
       </c>
       <c r="R31">
-        <v>350.48580150499</v>
+        <v>39173.25328454053</v>
       </c>
       <c r="S31">
-        <v>0.0002011651336873309</v>
+        <v>0.01197167462603301</v>
       </c>
       <c r="T31">
-        <v>0.000234837954748767</v>
+        <v>0.01452264121660309</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>94.93248999999999</v>
+        <v>127.177053</v>
       </c>
       <c r="H32">
-        <v>284.79747</v>
+        <v>381.531159</v>
       </c>
       <c r="I32">
-        <v>0.3477589080072051</v>
+        <v>0.2504855104216792</v>
       </c>
       <c r="J32">
-        <v>0.3478666269702695</v>
+        <v>0.2510168272411558</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N32">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O32">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P32">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q32">
-        <v>15623.73008596854</v>
+        <v>25633.26699967854</v>
       </c>
       <c r="R32">
-        <v>93742.38051581127</v>
+        <v>153799.6019980712</v>
       </c>
       <c r="S32">
-        <v>0.08070668666600746</v>
+        <v>0.07050367170273748</v>
       </c>
       <c r="T32">
-        <v>0.0628107296189582</v>
+        <v>0.05701789491034708</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>94.93248999999999</v>
+        <v>127.177053</v>
       </c>
       <c r="H33">
-        <v>284.79747</v>
+        <v>381.531159</v>
       </c>
       <c r="I33">
-        <v>0.3477589080072051</v>
+        <v>0.2504855104216792</v>
       </c>
       <c r="J33">
-        <v>0.3478666269702695</v>
+        <v>0.2510168272411558</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P33">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q33">
-        <v>11274.59338021672</v>
+        <v>15104.09723656538</v>
       </c>
       <c r="R33">
-        <v>101471.3404219505</v>
+        <v>135936.8751290884</v>
       </c>
       <c r="S33">
-        <v>0.05824057828808708</v>
+        <v>0.04154344871242455</v>
       </c>
       <c r="T33">
-        <v>0.0679894076963556</v>
+        <v>0.05039567306974266</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>94.93248999999999</v>
+        <v>127.177053</v>
       </c>
       <c r="H34">
-        <v>284.79747</v>
+        <v>381.531159</v>
       </c>
       <c r="I34">
-        <v>0.3477589080072051</v>
+        <v>0.2504855104216792</v>
       </c>
       <c r="J34">
-        <v>0.3478666269702695</v>
+        <v>0.2510168272411558</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N34">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O34">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P34">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q34">
-        <v>8024.829162582928</v>
+        <v>9870.584687119363</v>
       </c>
       <c r="R34">
-        <v>72223.46246324637</v>
+        <v>88835.26218407428</v>
       </c>
       <c r="S34">
-        <v>0.0414534409650658</v>
+        <v>0.02714880090405404</v>
       </c>
       <c r="T34">
-        <v>0.04839228903685459</v>
+        <v>0.0329337630120018</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>94.93248999999999</v>
+        <v>127.177053</v>
       </c>
       <c r="H35">
-        <v>284.79747</v>
+        <v>381.531159</v>
       </c>
       <c r="I35">
-        <v>0.3477589080072051</v>
+        <v>0.2504855104216792</v>
       </c>
       <c r="J35">
-        <v>0.3478666269702695</v>
+        <v>0.2510168272411558</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N35">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O35">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P35">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q35">
-        <v>13281.8399205636</v>
+        <v>21879.5073228518</v>
       </c>
       <c r="R35">
-        <v>79691.03952338162</v>
+        <v>131277.0439371108</v>
       </c>
       <c r="S35">
-        <v>0.0686093069272673</v>
+        <v>0.06017904784931741</v>
       </c>
       <c r="T35">
-        <v>0.05339583130932524</v>
+        <v>0.04866814086710749</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>94.93248999999999</v>
+        <v>127.177053</v>
       </c>
       <c r="H36">
-        <v>284.79747</v>
+        <v>381.531159</v>
       </c>
       <c r="I36">
-        <v>0.3477589080072051</v>
+        <v>0.2504855104216792</v>
       </c>
       <c r="J36">
-        <v>0.3478666269702695</v>
+        <v>0.2510168272411558</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N36">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O36">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P36">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q36">
-        <v>11556.44376599716</v>
+        <v>7611.834762859747</v>
       </c>
       <c r="R36">
-        <v>104007.9938939744</v>
+        <v>68506.51286573772</v>
       </c>
       <c r="S36">
-        <v>0.05969651810826512</v>
+        <v>0.0209361646793941</v>
       </c>
       <c r="T36">
-        <v>0.06968905575832705</v>
+        <v>0.02539731638123457</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>94.93248999999999</v>
+        <v>127.177053</v>
       </c>
       <c r="H37">
-        <v>284.79747</v>
+        <v>381.531159</v>
       </c>
       <c r="I37">
-        <v>0.3477589080072051</v>
+        <v>0.2504855104216792</v>
       </c>
       <c r="J37">
-        <v>0.3478666269702695</v>
+        <v>0.2510168272411558</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N37">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O37">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P37">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q37">
-        <v>7560.015452113817</v>
+        <v>10970.60383642104</v>
       </c>
       <c r="R37">
-        <v>68040.13906902436</v>
+        <v>98735.43452778936</v>
       </c>
       <c r="S37">
-        <v>0.03905237705251233</v>
+        <v>0.03017437657375165</v>
       </c>
       <c r="T37">
-        <v>0.04558931355044881</v>
+        <v>0.03660403900072217</v>
       </c>
     </row>
   </sheetData>
